--- a/public/assets/template-import/template-siswa.xlsx
+++ b/public/assets/template-import/template-siswa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F-DEV19\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\si_nilai_laravel\public\assets\template-import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933D6FED-81BF-4477-B619-7E6FB00E4BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BCBECC-3AD5-4282-B6C7-CD1879C5A8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-210" yWindow="11400" windowWidth="20730" windowHeight="11040" xr2:uid="{F2AFBDE2-2A8B-4747-8B99-531234A2F2BE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F2AFBDE2-2A8B-4747-8B99-531234A2F2BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Nama</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Agama</t>
+  </si>
+  <si>
+    <t>Kejuruan</t>
   </si>
 </sst>
 </file>
@@ -134,7 +137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -157,11 +160,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -187,7 +201,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,18 +521,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CA2EFF-4F99-4755-809A-0D3E7C75B604}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
     <col min="2" max="2" width="18" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13" style="3" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" style="3" customWidth="1"/>
     <col min="7" max="7" width="52.5703125" style="2" customWidth="1"/>
@@ -531,9 +550,10 @@
     <col min="19" max="19" width="20.85546875" customWidth="1"/>
     <col min="20" max="20" width="21.42578125" customWidth="1"/>
     <col min="21" max="21" width="7.28515625" customWidth="1"/>
+    <col min="22" max="22" width="44.7109375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="9" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -597,11 +617,14 @@
       <c r="U1" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="V1" s="9" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
     </row>
   </sheetData>

--- a/public/assets/template-import/template-siswa.xlsx
+++ b/public/assets/template-import/template-siswa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\si_nilai_laravel\public\assets\template-import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BCBECC-3AD5-4282-B6C7-CD1879C5A8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE0A697-4993-47AA-A7EB-B2A9542AF249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F2AFBDE2-2A8B-4747-8B99-531234A2F2BE}"/>
+    <workbookView xWindow="-210" yWindow="11400" windowWidth="20730" windowHeight="11040" xr2:uid="{F2AFBDE2-2A8B-4747-8B99-531234A2F2BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -175,36 +175,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -523,109 +518,110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CA2EFF-4F99-4755-809A-0D3E7C75B604}">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="52.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6" style="3" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="23.42578125" customWidth="1"/>
-    <col min="16" max="16" width="23.5703125" customWidth="1"/>
-    <col min="17" max="17" width="22.42578125" customWidth="1"/>
-    <col min="18" max="18" width="21" customWidth="1"/>
-    <col min="19" max="19" width="20.85546875" customWidth="1"/>
-    <col min="20" max="20" width="21.42578125" customWidth="1"/>
-    <col min="21" max="21" width="7.28515625" customWidth="1"/>
-    <col min="22" max="22" width="44.7109375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="52.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" style="8" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="18" style="7" customWidth="1"/>
+    <col min="15" max="15" width="23.42578125" style="7" customWidth="1"/>
+    <col min="16" max="16" width="23.5703125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="22.42578125" style="7" customWidth="1"/>
+    <col min="18" max="18" width="21" style="7" customWidth="1"/>
+    <col min="19" max="19" width="20.85546875" style="7" customWidth="1"/>
+    <col min="20" max="20" width="21.42578125" style="7" customWidth="1"/>
+    <col min="21" max="21" width="7.28515625" style="7" customWidth="1"/>
+    <col min="22" max="22" width="44.7109375" style="9" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
+      <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
+      <c r="B3" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
